--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H2">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>233.78580904966</v>
+        <v>90.17939892815468</v>
       </c>
       <c r="R2">
-        <v>2104.07228144694</v>
+        <v>811.614590353392</v>
       </c>
       <c r="S2">
-        <v>0.09315804892515084</v>
+        <v>0.122813291751328</v>
       </c>
       <c r="T2">
-        <v>0.09315804892515084</v>
+        <v>0.122813291751328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H3">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>583.365547985476</v>
+        <v>210.5522922591916</v>
       </c>
       <c r="R3">
-        <v>5250.289931869284</v>
+        <v>1894.970630332724</v>
       </c>
       <c r="S3">
-        <v>0.2324572072248174</v>
+        <v>0.2867464233016276</v>
       </c>
       <c r="T3">
-        <v>0.2324572072248174</v>
+        <v>0.2867464233016276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H4">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>126.866349370068</v>
+        <v>67.00355853316067</v>
       </c>
       <c r="R4">
-        <v>1141.797144330612</v>
+        <v>603.0320267984459</v>
       </c>
       <c r="S4">
-        <v>0.05055320350544289</v>
+        <v>0.09125063684518653</v>
       </c>
       <c r="T4">
-        <v>0.05055320350544289</v>
+        <v>0.09125063684518653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H5">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>364.149960949776</v>
+        <v>42.47908108111578</v>
       </c>
       <c r="R5">
-        <v>3277.349648547984</v>
+        <v>382.311729730042</v>
       </c>
       <c r="S5">
-        <v>0.1451050430141595</v>
+        <v>0.05785130351445054</v>
       </c>
       <c r="T5">
-        <v>0.1451050430141595</v>
+        <v>0.05785130351445054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H6">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>84.43295623211</v>
+        <v>31.66762734803889</v>
       </c>
       <c r="R6">
-        <v>759.89660608899</v>
+        <v>285.00864613235</v>
       </c>
       <c r="S6">
-        <v>0.03364451204091364</v>
+        <v>0.04312742824628426</v>
       </c>
       <c r="T6">
-        <v>0.03364451204091364</v>
+        <v>0.04312742824628426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H7">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>128.94093946438</v>
+        <v>34.54846022455178</v>
       </c>
       <c r="R7">
-        <v>1160.46845517942</v>
+        <v>310.936142020966</v>
       </c>
       <c r="S7">
-        <v>0.0513798779998922</v>
+        <v>0.04705076963861123</v>
       </c>
       <c r="T7">
-        <v>0.0513798779998922</v>
+        <v>0.04705076963861122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.925382</v>
       </c>
       <c r="I8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>39.70372435787333</v>
+        <v>42.43275610475201</v>
       </c>
       <c r="R8">
-        <v>357.33351922086</v>
+        <v>381.8948049427681</v>
       </c>
       <c r="S8">
-        <v>0.01582098379399836</v>
+        <v>0.0577882145727947</v>
       </c>
       <c r="T8">
-        <v>0.01582098379399836</v>
+        <v>0.05778821457279469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.925382</v>
       </c>
       <c r="I9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
         <v>99.07267259397734</v>
@@ -1013,10 +1013,10 @@
         <v>891.6540533457961</v>
       </c>
       <c r="S9">
-        <v>0.039478088589606</v>
+        <v>0.134924840800521</v>
       </c>
       <c r="T9">
-        <v>0.039478088589606</v>
+        <v>0.134924840800521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.925382</v>
       </c>
       <c r="I10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>21.545647215092</v>
+        <v>31.527662539126</v>
       </c>
       <c r="R10">
-        <v>193.910824935828</v>
+        <v>283.748962852134</v>
       </c>
       <c r="S10">
-        <v>0.00858542469085978</v>
+        <v>0.04293681332628871</v>
       </c>
       <c r="T10">
-        <v>0.008585424690859779</v>
+        <v>0.04293681332628871</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.925382</v>
       </c>
       <c r="I11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>61.84340158734401</v>
+        <v>19.98798515506867</v>
       </c>
       <c r="R11">
-        <v>556.5906142860961</v>
+        <v>179.891866395618</v>
       </c>
       <c r="S11">
-        <v>0.02464311522667215</v>
+        <v>0.02722118667398058</v>
       </c>
       <c r="T11">
-        <v>0.02464311522667214</v>
+        <v>0.02722118667398058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.925382</v>
       </c>
       <c r="I12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>14.33920576525667</v>
+        <v>14.90079467868333</v>
       </c>
       <c r="R12">
-        <v>129.05285188731</v>
+        <v>134.10715210815</v>
       </c>
       <c r="S12">
-        <v>0.005713830269072647</v>
+        <v>0.02029305657335035</v>
       </c>
       <c r="T12">
-        <v>0.005713830269072647</v>
+        <v>0.02029305657335035</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.925382</v>
       </c>
       <c r="I13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>21.89797378955334</v>
+        <v>16.25633352991267</v>
       </c>
       <c r="R13">
-        <v>197.08176410598</v>
+        <v>146.307001769214</v>
       </c>
       <c r="S13">
-        <v>0.008725818397367122</v>
+        <v>0.02213913439594618</v>
       </c>
       <c r="T13">
-        <v>0.008725818397367122</v>
+        <v>0.02213913439594617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H14">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>112.1060819830311</v>
+        <v>6.373448995346668</v>
       </c>
       <c r="R14">
-        <v>1008.95473784728</v>
+        <v>57.36104095812001</v>
       </c>
       <c r="S14">
-        <v>0.0446715902587731</v>
+        <v>0.008679856599524754</v>
       </c>
       <c r="T14">
-        <v>0.0446715902587731</v>
+        <v>0.008679856599524751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H15">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
-        <v>279.7382194170897</v>
+        <v>14.88082989593222</v>
       </c>
       <c r="R15">
-        <v>2517.643974753808</v>
+        <v>133.92746906339</v>
       </c>
       <c r="S15">
-        <v>0.1114689845231636</v>
+        <v>0.02026586698550759</v>
       </c>
       <c r="T15">
-        <v>0.1114689845231636</v>
+        <v>0.02026586698550759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H16">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>60.83555465228267</v>
+        <v>4.735491341631667</v>
       </c>
       <c r="R16">
-        <v>547.519991870544</v>
+        <v>42.619422074685</v>
       </c>
       <c r="S16">
-        <v>0.02424151234723662</v>
+        <v>0.006449158972428277</v>
       </c>
       <c r="T16">
-        <v>0.02424151234723662</v>
+        <v>0.006449158972428276</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H17">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>174.6189195242453</v>
+        <v>3.002218465166111</v>
       </c>
       <c r="R17">
-        <v>1571.570275718208</v>
+        <v>27.019966186495</v>
       </c>
       <c r="S17">
-        <v>0.06958145968920297</v>
+        <v>0.004088653690821565</v>
       </c>
       <c r="T17">
-        <v>0.06958145968920297</v>
+        <v>0.004088653690821564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H18">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>40.48769235354222</v>
+        <v>2.238116577680556</v>
       </c>
       <c r="R18">
-        <v>364.3892311818799</v>
+        <v>20.143049199125</v>
       </c>
       <c r="S18">
-        <v>0.01613337627493274</v>
+        <v>0.003048040544683087</v>
       </c>
       <c r="T18">
-        <v>0.01613337627493274</v>
+        <v>0.003048040544683086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H19">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>61.83037195167112</v>
+        <v>2.441720079376112</v>
       </c>
       <c r="R19">
-        <v>556.4733475650401</v>
+        <v>21.975480714385</v>
       </c>
       <c r="S19">
-        <v>0.02463792322873854</v>
+        <v>0.003325323566665189</v>
       </c>
       <c r="T19">
-        <v>0.02463792322873854</v>
+        <v>0.003325323566665188</v>
       </c>
     </row>
   </sheetData>
